--- a/server/docs/노크 데이터베이스 정의서 초안_서버_v3.2.xlsx
+++ b/server/docs/노크 데이터베이스 정의서 초안_서버_v3.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="165" windowWidth="15960" windowHeight="16320" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="165" windowWidth="15960" windowHeight="16320" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="요약" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,15 @@
     <sheet name="Notice" sheetId="3" r:id="rId11"/>
     <sheet name="Relation" sheetId="9" r:id="rId12"/>
     <sheet name="Report" sheetId="13" r:id="rId13"/>
-    <sheet name="Chat" sheetId="8" r:id="rId14"/>
+    <sheet name="Board" sheetId="22" r:id="rId14"/>
+    <sheet name="Chat" sheetId="8" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="258">
   <si>
     <t>표 1</t>
   </si>
@@ -1451,6 +1452,78 @@
   </si>
   <si>
     <t>답변2에 대한 값 매핑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의 테이블</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>writer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>question</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의내용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변내용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의일자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변일자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>atetime</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>q_date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_date</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4404,6 +4477,222 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:IV9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B5" sqref="B5"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="19.5703125" style="18" customWidth="1"/>
+    <col min="4" max="5" width="8.42578125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="16" style="18" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="7" style="18" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="18" customWidth="1"/>
+    <col min="11" max="256" width="19.5703125" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20.65" customHeight="1">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" ht="20.65" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.45" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.45" customHeight="1">
+      <c r="A4" s="15"/>
+      <c r="B4" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="16">
+        <v>11</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20.45" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="16">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20.45" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20.45" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="24" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20.45" customHeight="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="20.45" customHeight="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Apple SD 산돌고딕 Neo 일반체,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:IV13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -5688,7 +5977,7 @@
   </sheetPr>
   <dimension ref="A1:IV56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
